--- a/fp/fpClient/srv/import/Example_import_users.xlsx
+++ b/fp/fpClient/srv/import/Example_import_users.xlsx
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
     <t xml:space="preserve">Логин</t>
   </si>
   <si>
@@ -34,13 +31,16 @@
     <t xml:space="preserve">CACC</t>
   </si>
   <si>
+    <t xml:space="preserve">ID Агента</t>
+  </si>
+  <si>
     <t xml:space="preserve">tNew</t>
   </si>
   <si>
     <t xml:space="preserve">123qweasd</t>
   </si>
   <si>
-    <t xml:space="preserve">1185045</t>
+    <t xml:space="preserve">707942</t>
   </si>
 </sst>
 </file>
@@ -51,7 +51,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +75,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -83,6 +98,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -127,32 +149,48 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -166,7 +204,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -182,14 +220,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0000FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
 </styleSheet>
 </file>
@@ -198,10 +228,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D2" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="Логин"/>
-    <tableColumn id="3" name="Пароль"/>
-    <tableColumn id="4" name="CACC"/>
+    <tableColumn id="1" name="Логин"/>
+    <tableColumn id="2" name="Пароль"/>
+    <tableColumn id="3" name="CACC"/>
+    <tableColumn id="4" name="ID Агента"/>
   </tableColumns>
 </table>
 </file>
@@ -386,59 +416,61 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="23.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16369" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="21.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="21.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16371" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>441</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="5"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="5"/>
+      <c r="C4" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/fp/fpClient/srv/import/Example_import_users.xlsx
+++ b/fp/fpClient/srv/import/Example_import_users.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">CACC</t>
   </si>
   <si>
-    <t xml:space="preserve">ID Агента</t>
+    <t xml:space="preserve">CACC Агента</t>
   </si>
   <si>
     <t xml:space="preserve">tNew</t>
@@ -170,7 +170,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -186,7 +186,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -231,7 +231,7 @@
     <tableColumn id="1" name="Логин"/>
     <tableColumn id="2" name="Пароль"/>
     <tableColumn id="3" name="CACC"/>
-    <tableColumn id="4" name="ID Агента"/>
+    <tableColumn id="4" name="CACC Агента"/>
   </tableColumns>
 </table>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -427,8 +427,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="21.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="21.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="2" width="10.57"/>
@@ -463,7 +463,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>441</v>
+        <v>4423128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
